--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\LibrarySeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,19 +63,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>阅览室管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wrong_pswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15555555555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阅览室管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong_pswd</t>
+    <t>wrong_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13333333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙某</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,7 +155,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15555555555</t>
+    <t>18888882222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,103 +163,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wrong_gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Student1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11999999999</t>
+    <t>aaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhang_mou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang_moumou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_mou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王某某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵某某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩某某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴某某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13333333333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18888882222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhang_mou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wang_moumou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li_mou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaaaaaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -547,13 +547,13 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -582,18 +582,18 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -602,84 +602,84 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>12345678908</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -699,22 +699,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
